--- a/TP310_SQL_VideoScar_Migration_de_donnees/DonneesSiteLettreQ.xlsx
+++ b/TP310_SQL_VideoScar_Migration_de_donnees/DonneesSiteLettreQ.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\JAVA_SWING_SQL\TP310_SQL_VideoScar_Migration_de_donnees\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Github\JAVA_SWING_SQL\TP310_SQL_VideoScar_Migration_de_donnees\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA50A3C-B95C-4092-BB76-C6F92E429D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="49">
   <si>
     <t xml:space="preserve">INSERT INTO </t>
   </si>
@@ -83,9 +84,6 @@
     <t>Quelqu''un de bien</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>(reacod, reanom, reapre)</t>
   </si>
   <si>
@@ -152,9 +150,6 @@
     <t>);</t>
   </si>
   <si>
-    <t>', null, null, null</t>
-  </si>
-  <si>
     <t>seq_realise.currval</t>
   </si>
   <si>
@@ -165,12 +160,24 @@
   </si>
   <si>
     <t>DeChauveron</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>',</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>'F'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -208,20 +215,20 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,30 +510,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="52.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" customWidth="1"/>
-    <col min="6" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" customWidth="1"/>
-    <col min="11" max="12" width="47.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" customWidth="1"/>
+    <col min="3" max="3" width="45.81640625" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" customWidth="1"/>
+    <col min="5" max="5" width="2.6328125" customWidth="1"/>
+    <col min="6" max="6" width="18.90625" customWidth="1"/>
+    <col min="7" max="7" width="5.453125" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="4.26953125" customWidth="1"/>
+    <col min="10" max="10" width="36.453125" customWidth="1"/>
+    <col min="11" max="11" width="3.08984375" customWidth="1"/>
+    <col min="12" max="12" width="7.08984375" customWidth="1"/>
+    <col min="13" max="15" width="3.36328125" customWidth="1"/>
+    <col min="16" max="16" width="5.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -534,34 +553,38 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -569,37 +592,52 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1800</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -607,7 +645,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -616,25 +654,29 @@
         <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2" t="s">
+      <c r="J4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -642,37 +684,52 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1800</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -680,7 +737,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -689,25 +746,29 @@
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2" t="s">
+      <c r="J6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -715,37 +776,52 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
         <v>39</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1800</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -753,7 +829,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -762,25 +838,29 @@
         <v>14</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2" t="s">
+      <c r="J8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -788,37 +868,52 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1800</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -826,7 +921,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -835,25 +930,29 @@
         <v>14</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2" t="s">
+      <c r="J10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -861,37 +960,52 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1800</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -899,7 +1013,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -908,25 +1022,29 @@
         <v>14</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2" t="s">
+      <c r="J12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -934,37 +1052,52 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s">
         <v>39</v>
       </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1800</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H13" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -972,37 +1105,52 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
         <v>39</v>
       </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1800</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1158,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -1019,25 +1167,29 @@
         <v>14</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2" t="s">
+      <c r="J15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1045,37 +1197,52 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
         <v>39</v>
       </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1800</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1083,7 +1250,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
@@ -1092,25 +1259,29 @@
         <v>14</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2" t="s">
+      <c r="J17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1118,37 +1289,52 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" t="s">
         <v>39</v>
       </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1800</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H18" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1342,7 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -1165,25 +1351,29 @@
         <v>14</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2" t="s">
+      <c r="J19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1191,37 +1381,52 @@
         <v>9</v>
       </c>
       <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" t="s">
         <v>39</v>
       </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1800</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H20" t="s">
-        <v>43</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1229,7 +1434,7 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -1238,25 +1443,29 @@
         <v>14</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2" t="s">
+      <c r="J21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1264,53 +1473,73 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s">
         <v>39</v>
       </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1800</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H22" t="s">
-        <v>43</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="2"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
